--- a/excel/weight_loss_plan.xlsx
+++ b/excel/weight_loss_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Week</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>1*300 + 1*100</t>
+  </si>
+  <si>
+    <t>170-200g</t>
+  </si>
+  <si>
+    <t>Abs and Cardio</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,6 +222,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -520,7 +529,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,17 +813,25 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1">
+        <v>2700</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="1">
         <v>87.56</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>85.2</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>85.05</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
       <c r="H7" s="1">
         <v>87.2</v>
       </c>
@@ -833,25 +850,37 @@
       <c r="M7" s="10">
         <v>85</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>84.15</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="1">
+        <v>2700</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" s="1">
         <v>86.68</v>
       </c>
-      <c r="F8" t="e">
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>84.5</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="1">
+        <v>84.5</v>
+      </c>
+      <c r="I8" s="11">
+        <v>84.5</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="L8" s="1"/>
       <c r="N8" s="1"/>
@@ -1007,10 +1036,10 @@
       <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/excel/weight_loss_plan.xlsx
+++ b/excel/weight_loss_plan.xlsx
@@ -192,7 +192,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,6 +222,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -529,7 +532,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -871,19 +874,33 @@
         <v>86.68</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>84.5</v>
-      </c>
-      <c r="G8" s="2"/>
+        <f>ROUND(AVERAGE(H8:M8), 2)</f>
+        <v>84.28</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
       <c r="H8" s="1">
         <v>84.5</v>
       </c>
       <c r="I8" s="11">
         <v>84.5</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="J8" s="1">
+        <v>85</v>
+      </c>
+      <c r="K8" s="10">
+        <v>84.1</v>
+      </c>
+      <c r="L8" s="10">
+        <v>84.1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="N8" s="12">
+        <v>83.5</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
@@ -1036,10 +1053,10 @@
       <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
